--- a/src/test/resources/TestData/AzamExcelData.xlsx
+++ b/src/test/resources/TestData/AzamExcelData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24604"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337E0669-559E-41C9-8768-0DB3609E9076}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4705A413-6158-45E8-A00D-EDB48809D6C9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>variable</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>movienumber</t>
+  </si>
+  <si>
+    <t>ISDCode</t>
   </si>
   <si>
     <t>phonenumber</t>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>9600000000</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,6 +442,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
+        <v>9600000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>111111</v>
       </c>
     </row>
